--- a/biology/Zoologie/Cochevis_à_queue_courte/Cochevis_à_queue_courte.xlsx
+++ b/biology/Zoologie/Cochevis_à_queue_courte/Cochevis_à_queue_courte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cochevis_%C3%A0_queue_courte</t>
+          <t>Cochevis_à_queue_courte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spizocorys fremantlii
 Le Cochevis à queue courte (Spizocorys fremantlii, anciennement Pseudalaemon fremantlii) est une espèce de passereaux de la famille des Alaudidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cochevis_%C3%A0_queue_courte</t>
+          <t>Cochevis_à_queue_courte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve en Éthiopie, en Somalie, au Kenya et en Tanzanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve en Éthiopie, en Somalie, au Kenya et en Tanzanie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cochevis_%C3%A0_queue_courte</t>
+          <t>Cochevis_à_queue_courte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,16 +557,87 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La vaste étude phylogénique d'Alström et al. (2013) amène à une révision complète de la famille des Alaudidae. En conséquence, le Congrès ornithologique international (version 4.2, 2014) déplace cette espèce (anciennement Pseudalaemon fremantlii) dans le genre Spizocorys.
-Liste des espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vaste étude phylogénique d'Alström et al. (2013) amène à une révision complète de la famille des Alaudidae. En conséquence, le Congrès ornithologique international (version 4.2, 2014) déplace cette espèce (anciennement Pseudalaemon fremantlii) dans le genre Spizocorys.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cochevis_à_queue_courte</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cochevis_%C3%A0_queue_courte</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Spizocorys fremantlii fremantlii (Lort Phillips, 1897)
 Spizocorys fremantlii megaensis (Benson, 1946)
-Spizocorys fremantlii delamerei (Sharpe, 1900)
-Synonymes
-Calendula fremantlii (Protonyme)
+Spizocorys fremantlii delamerei (Sharpe, 1900)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cochevis_à_queue_courte</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cochevis_%C3%A0_queue_courte</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Calendula fremantlii (Protonyme)
 Galerida fremantlii
 Pseudalaemon fremantlii</t>
         </is>
